--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3207155.997751038</v>
+        <v>3311335.632202109</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8088979.934727984</v>
+        <v>8088979.934727983</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>339.5041881239403</v>
       </c>
       <c r="F2" t="n">
-        <v>250.3640278003693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851069</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -792,7 +794,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969261</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.5522128412691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>18.41833046690816</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>300.8746055035051</v>
+        <v>225.7512692123542</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>126.6623413033681</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>89.28266377778704</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>244.8450081818841</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>90.5051912188213</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>87.93270968653133</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>209.7972891139234</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>135.3135037226519</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>102.3739644559489</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>3.814130455270078</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>161.5187058058178</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2135,10 +2137,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>2.268486125805158</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>72.97607332171654</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>68.17501931583824</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>126.4267013134142</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>198.7868646016079</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>64.91921363453632</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>59.66990246485316</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>105.8460632289458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78315874934725</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>282.1790419027932</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3791,10 +3793,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>72.97607332171789</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705873</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>130.1208074460242</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>226.3421234328594</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.06112435253</v>
+        <v>1891.353293732293</v>
       </c>
       <c r="C2" t="n">
-        <v>1032.06112435253</v>
+        <v>1891.353293732293</v>
       </c>
       <c r="D2" t="n">
-        <v>1032.06112435253</v>
+        <v>1533.087595125543</v>
       </c>
       <c r="E2" t="n">
-        <v>1032.06112435253</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
         <v>779.1681669784198</v>
@@ -4322,16 +4324,16 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416652</v>
+        <v>2277.953133796415</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.445961844415</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C4" t="n">
-        <v>349.5097789165081</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D4" t="n">
-        <v>199.3931395041724</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962276</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.645724237293</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596501</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588477</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886951</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068846</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596431</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181838</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757116</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757116</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757116</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757116</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757116</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>812.4521743667135</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>812.4521743667135</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746548</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1879.82957821044</v>
+        <v>1506.363819949358</v>
       </c>
       <c r="C5" t="n">
-        <v>1510.867061270029</v>
+        <v>1137.401303008947</v>
       </c>
       <c r="D5" t="n">
-        <v>1510.867061270029</v>
+        <v>1137.401303008947</v>
       </c>
       <c r="E5" t="n">
-        <v>1125.078808671784</v>
+        <v>751.6130504107023</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250374</v>
+        <v>2283.102991989292</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.429418274562</v>
+        <v>1892.96366001348</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>194.4538753244744</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>194.4538753244744</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>194.4538753244744</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>549.1861555360877</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>549.1861555360877</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V7" t="n">
-        <v>294.5016673302007</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302007</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068675</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1879.82957821044</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1510.867061270028</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.601362663278</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>766.8131100650335</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>355.8272052754259</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250373</v>
+        <v>1980.556001111121</v>
       </c>
       <c r="Y8" t="n">
-        <v>2266.429418274562</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>2932.040903128501</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>2932.040903128501</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>2932.040903128501</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>2932.040903128501</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>2785.150955630591</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>2617.44811900531</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223168</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223168</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760607</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950635</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.81570227968</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250628</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S10" t="n">
-        <v>832.0660869429007</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T10" t="n">
-        <v>610.2994715124267</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U10" t="n">
-        <v>321.1966046380703</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V10" t="n">
-        <v>66.51211643218342</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218342</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>3113.689367958741</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>3113.689367958741</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5352,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.2213777565</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311989</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7557007032921</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>482.6390612909563</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E22" t="n">
-        <v>334.7259677085632</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>334.7259677085632</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5298684234431</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614387</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6072,22 +6074,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746423</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,19 +6238,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2063.313436506268</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1774.238209850466</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1519.553721644579</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,13 +6688,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,46 +6703,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.530292372933</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C34" t="n">
-        <v>853.594109445026</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D34" t="n">
-        <v>703.4774700326902</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E34" t="n">
-        <v>555.5643764502971</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F34" t="n">
-        <v>408.6744289523867</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G34" t="n">
-        <v>241.4783296672667</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U34" t="n">
-        <v>2197.062545487568</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V34" t="n">
-        <v>1942.378057281681</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W34" t="n">
-        <v>1652.96088724472</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X34" t="n">
-        <v>1424.971336346703</v>
+        <v>3577.782173770509</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.178757203173</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6953,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249859</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2878.798005073649</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.798005073649</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661314</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430193</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X37" t="n">
-        <v>3281.239049047419</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y37" t="n">
-        <v>3060.446469903889</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7153,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7202,10 +7204,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,43 +7238,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558406</v>
+        <v>700.7543264856226</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630499</v>
+        <v>700.7543264856226</v>
       </c>
       <c r="D40" t="n">
-        <v>2438.670847218163</v>
+        <v>550.6376870732869</v>
       </c>
       <c r="E40" t="n">
-        <v>2337.686731866305</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866305</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866305</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467153</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430193</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>882.4027913158624</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>3045.561952449533</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>2876.625769521626</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>2726.50913010929</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>2578.596036526897</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G43" t="n">
-        <v>202.303641104158</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>3227.210417279773</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C46" t="n">
-        <v>2757.723669558405</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D46" t="n">
-        <v>2757.723669558405</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E46" t="n">
-        <v>2757.723669558405</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F46" t="n">
-        <v>2610.833722060494</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7831,25 +7833,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>3886.482349510196</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>3597.065179473235</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>3597.065179473235</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>3376.272600329705</v>
       </c>
     </row>
   </sheetData>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>44.51847645928544</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>115.0314858713394</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>282.7088678813209</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>5.728115292810003</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>144.165476520764</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.31863952450735</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>72.11969353038562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>58.15585306139381</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>18.61858572568036</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>75.37549921168754</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>166.039752924184</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>119.8635921600913</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25597,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>4.0054324864509</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>72.44497470121335</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>35.40333084624464</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>25.79551989096856</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="K2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551168</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405272</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26439,10 +26441,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26451,7 +26453,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.837515183</v>
+        <v>-791337.8375151821</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124092</v>
+        <v>537406.9082124085</v>
       </c>
       <c r="D6" t="n">
         <v>537406.9082124096</v>
       </c>
       <c r="E6" t="n">
-        <v>285070.2520478758</v>
+        <v>285070.2520478752</v>
       </c>
       <c r="F6" t="n">
-        <v>610482.7138552309</v>
+        <v>610482.7138552307</v>
       </c>
       <c r="G6" t="n">
         <v>610482.7138552309</v>
       </c>
       <c r="H6" t="n">
-        <v>610482.7138552309</v>
+        <v>610482.7138552305</v>
       </c>
       <c r="I6" t="n">
-        <v>610482.7138552306</v>
+        <v>610482.7138552307</v>
       </c>
       <c r="J6" t="n">
-        <v>392951.5114579533</v>
+        <v>392951.5114579534</v>
       </c>
       <c r="K6" t="n">
-        <v>610482.7138552306</v>
+        <v>610482.7138552311</v>
       </c>
       <c r="L6" t="n">
         <v>610482.7138552309</v>
@@ -26555,13 +26557,13 @@
         <v>525427.6859197192</v>
       </c>
       <c r="N6" t="n">
-        <v>610482.7138552307</v>
+        <v>610482.7138552304</v>
       </c>
       <c r="O6" t="n">
         <v>610482.7138552308</v>
       </c>
       <c r="P6" t="n">
-        <v>610482.7138552307</v>
+        <v>610482.7138552308</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>42.42618194832147</v>
       </c>
       <c r="F2" t="n">
-        <v>156.5120179413421</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.472688720445149e-12</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.88174980530007</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>268.1046678696828</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>106.0014402382064</v>
+        <v>181.1247765293572</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>18.0926736109527</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>130.2662854983822</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>166.0767174715693</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>279.2259094596477</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>101.8363156449106</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>15.91236627511375</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28387,13 +28389,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="18">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>202.2352659288684</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>637.8521160493917</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O21" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>531.2627466777524</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>309.7666854143579</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,16 +33970,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>447.1326187913569</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,34 +34207,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>638.4800548179292</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34454,10 +34456,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N45" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34466,10 +34468,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.9421752903428</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996669</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286435</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.123718484038</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230781</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567571</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106919</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014208</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>68.26085851453816</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>499.2977362695175</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O21" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M24" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>171.2123056344837</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>313.1582113770266</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>496.3460208959108</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,10 +38104,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N45" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3311335.632202109</v>
+        <v>3307323.022188117</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>339.5041881239403</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>129.539868031607</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -794,7 +794,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969261</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>150.4026958753531</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>18.41833046690816</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>225.7512692123542</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>68.11015198958272</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>38.54905110173188</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>126.6623413033681</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>188.810869034085</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>90.5051912188213</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>58.28185552386356</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>209.7972891139234</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.3135037226519</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>3.814130455270078</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>161.5187058058178</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>2.268486125805158</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>23.10998325717172</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.4267013134142</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>198.7868646016079</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>59.66990246485316</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.78315874934725</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>282.1790419027932</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>72.97607332171789</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>226.3421234328594</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.353293732293</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1891.353293732293</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1533.087595125543</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066529</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796415</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796415</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796415</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="3">
@@ -4400,46 +4400,46 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125854</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619334</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.8037095364738</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="C4" t="n">
-        <v>461.8675266085669</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962312</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596501</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181838</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757116</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757116</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757116</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757116</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757116</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W4" t="n">
-        <v>812.4521743667135</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X4" t="n">
-        <v>812.4521743667135</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y4" t="n">
-        <v>812.4521743667135</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1506.363819949358</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1137.401303008947</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1137.401303008947</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>751.6130504107023</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520486</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250372</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989292</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.96366001348</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.3669689068675</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="C7" t="n">
-        <v>342.3669689068675</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="D7" t="n">
-        <v>342.3669689068675</v>
+        <v>253.3636454708714</v>
       </c>
       <c r="E7" t="n">
-        <v>194.4538753244744</v>
+        <v>105.4505518884783</v>
       </c>
       <c r="F7" t="n">
-        <v>194.4538753244744</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>194.4538753244744</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696228</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.788049458848</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886955</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438281</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438281</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>342.3669689068675</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X7" t="n">
-        <v>342.3669689068675</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.3669689068675</v>
+        <v>403.4802848832071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450751</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180637</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.556001111121</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1590.416669135309</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2932.040903128501</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C10" t="n">
-        <v>2932.040903128501</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D10" t="n">
-        <v>2932.040903128501</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E10" t="n">
-        <v>2932.040903128501</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F10" t="n">
-        <v>2785.150955630591</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="G10" t="n">
-        <v>2617.44811900531</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="H10" t="n">
-        <v>2471.230932223168</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>2471.230932223168</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>2483.053685760607</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>2737.074383950635</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>3075.81570227968</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>3312.685054250628</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609169</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609169</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>3325.605821609169</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>3325.605821609169</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>3325.605821609169</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>3325.605821609169</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>3325.605821609169</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>3113.689367958741</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>3113.689367958741</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>533.5582272005026</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9926444679666</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>117.1600804794585</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>117.1600804794585</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>117.1600804794585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615996</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.284195611858</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.3544215660705</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2063.313436506268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1774.238209850466</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1519.553721644579</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1230.136551607618</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1002.147000709601</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>781.3544215660705</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6788,16 +6788,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.341129796739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3577.782173770509</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3356.989594626978</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249859</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7241,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>700.7543264856226</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856226</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>550.6376870732869</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>882.4027913158624</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3045.561952449533</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>2876.625769521626</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>2726.50913010929</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>2578.596036526897</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.19996817779</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279773</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>3227.210417279773</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3194.624135499465</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>3025.687952571559</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>2875.571313159223</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3886.482349510196</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3597.065179473235</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3597.065179473235</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>3376.272600329705</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.51847645928544</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>282.7088678813209</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>5.728115292810003</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>144.165476520764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>58.15585306139381</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.40527886852308</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>18.61858572568036</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>166.039752924184</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>4.0054324864509</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>72.44497470121335</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>25.79551989096856</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700103.3209317885</v>
+        <v>700103.3209317887</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700103.3209317885</v>
+        <v>700103.3209317887</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778556</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.939721005</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210052</v>
@@ -26340,22 +26340,22 @@
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551168</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405272</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="F4" t="n">
         <v>14826.69604186741</v>
       </c>
-      <c r="F4" t="n">
-        <v>14826.6960418674</v>
-      </c>
       <c r="G4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26450,7 +26450,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151821</v>
+        <v>-791337.8375151828</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124085</v>
+        <v>537406.9082124094</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124096</v>
+        <v>537406.9082124095</v>
       </c>
       <c r="E6" t="n">
-        <v>285070.2520478752</v>
+        <v>284722.8727935189</v>
       </c>
       <c r="F6" t="n">
-        <v>610482.7138552307</v>
+        <v>610135.3346008738</v>
       </c>
       <c r="G6" t="n">
-        <v>610482.7138552309</v>
+        <v>610135.334600874</v>
       </c>
       <c r="H6" t="n">
-        <v>610482.7138552305</v>
+        <v>610135.3346008741</v>
       </c>
       <c r="I6" t="n">
-        <v>610482.7138552307</v>
+        <v>610135.3346008738</v>
       </c>
       <c r="J6" t="n">
-        <v>392951.5114579534</v>
+        <v>392604.1322035965</v>
       </c>
       <c r="K6" t="n">
-        <v>610482.7138552311</v>
+        <v>610135.3346008742</v>
       </c>
       <c r="L6" t="n">
-        <v>610482.7138552309</v>
+        <v>610135.3346008739</v>
       </c>
       <c r="M6" t="n">
-        <v>525427.6859197192</v>
+        <v>525080.3066653621</v>
       </c>
       <c r="N6" t="n">
-        <v>610482.7138552304</v>
+        <v>610135.334600874</v>
       </c>
       <c r="O6" t="n">
-        <v>610482.7138552308</v>
+        <v>610135.334600874</v>
       </c>
       <c r="P6" t="n">
-        <v>610482.7138552308</v>
+        <v>610135.334600874</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42.42618194832147</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.472688720445149e-12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.84412522327472</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>268.1046678696828</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>181.1247765293572</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>259.6421064805522</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>106.8719969211994</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>18.0926736109527</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>218.0651767076264</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>279.2259094596477</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>86.47315939045723</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>15.91236627511375</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31861,10 +31861,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>438.5310889592611</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33201,13 +33201,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,10 +33271,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,7 +33283,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>338.6542681503486</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>309.7666854143579</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>447.1326187913569</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>638.4800548179292</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>300.6896499849021</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,10 +36919,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>196.0580237059041</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>171.2123056344837</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>313.1582113770266</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>496.3460208959108</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3307323.022188117</v>
+        <v>3309083.552490901</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8088979.934727983</v>
+        <v>8088979.934727984</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>42.64559995940495</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>129.539868031607</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414557</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C4" t="n">
-        <v>150.4026958753531</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>40.12741312164805</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>68.11015198958272</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>38.54905110173188</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>234.2900106523817</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>188.810869034085</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>58.28185552386356</v>
+        <v>72.08802744677264</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.9393756113372</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45.66054613217651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960837</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.55695577161244</v>
       </c>
       <c r="F43" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3282.529458013814</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3282.529458013814</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X2" t="n">
-        <v>1941.127034633561</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.127034633561</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
         <v>2435.471302619336</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.0565485757129</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
         <v>679.1346335501037</v>
@@ -4476,64 +4476,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>84.48966329598638</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V5" t="n">
-        <v>3146.517019813456</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>403.4802848832071</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>403.4802848832071</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D7" t="n">
-        <v>253.3636454708714</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E7" t="n">
-        <v>105.4505518884783</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4764,13 +4764,13 @@
         <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812244</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832071</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y7" t="n">
-        <v>403.4802848832071</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761617</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
         <v>77.54416254678289</v>
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879453</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600384</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477026</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653095</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673992</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G10" t="n">
-        <v>125.3826775673992</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5533,34 +5533,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,7 +6062,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273903</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6378,49 +6378,49 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
         <v>1202.091371290588</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,19 +6475,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="F43" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>700103.3209317885</v>
+        <v>700103.3209317887</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405244</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26450,7 +26450,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151828</v>
+        <v>-791337.8375151835</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124094</v>
+        <v>537406.9082124096</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124095</v>
+        <v>537406.9082124096</v>
       </c>
       <c r="E6" t="n">
-        <v>284722.8727935189</v>
+        <v>285035.5141224401</v>
       </c>
       <c r="F6" t="n">
-        <v>610135.3346008738</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="G6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297951</v>
       </c>
       <c r="H6" t="n">
-        <v>610135.3346008741</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="I6" t="n">
-        <v>610135.3346008738</v>
+        <v>610447.9759297948</v>
       </c>
       <c r="J6" t="n">
-        <v>392604.1322035965</v>
+        <v>392916.7735325175</v>
       </c>
       <c r="K6" t="n">
-        <v>610135.3346008742</v>
+        <v>610447.9759297948</v>
       </c>
       <c r="L6" t="n">
-        <v>610135.3346008739</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="M6" t="n">
-        <v>525080.3066653621</v>
+        <v>525392.9479942831</v>
       </c>
       <c r="N6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297954</v>
       </c>
       <c r="O6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297954</v>
       </c>
       <c r="P6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297952</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>66.54216182877084</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>240.1912326468621</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C4" t="n">
-        <v>16.84412522327472</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>69.06034866652779</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>259.6421064805522</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>106.8719969211994</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>52.23298768420932</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>218.0651767076264</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>86.47315939045723</v>
+        <v>72.66698746754814</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-8.769894134013742e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31612,7 +31612,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
